--- a/Test cases.xlsx
+++ b/Test cases.xlsx
@@ -5,7 +5,7 @@
   <fileSharing readOnlyRecommended="0" userName="Ashu"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="5" xWindow="240" yWindow="60" windowWidth="23256" windowHeight="12456" tabRatio="500"/>
+    <workbookView activeTab="6" xWindow="240" yWindow="60" windowWidth="23256" windowHeight="12456" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Logout" sheetId="1" r:id="rId4"/>
@@ -14,14 +14,15 @@
     <sheet name="Delete Customer" sheetId="4" r:id="rId7"/>
     <sheet name="New Account" sheetId="5" r:id="rId8"/>
     <sheet name="Delete Account" sheetId="6" r:id="rId9"/>
+    <sheet name="Mini Statement" sheetId="7" r:id="rId10"/>
   </sheets>
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1720591151" val="1215" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1720591151" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="wholeDoc"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1720591151" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1720591151"/>
+      <pm:revision xmlns:pm="smNativeData" day="1721290363" val="1215" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1721290363" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="wholeDoc"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1721290363" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1721290363"/>
       <pm:pdfExportOpt xmlns:pm="smNativeData" pagesRangeIndex="1" pagesSelectionIndex="0" qualityIndex="2" embedFonts="2" useJpegs="0" useSubsetFonts="1" useAlpha="1" relativeLinks="0" taggedPdf="1" pane="0" zoom="0" zoomScale="100" layout="0" includeDoc="0" viewFlags="0" openViewer="1" jpegQuality="90" flags="252" exportWsNames="1" dpi="2" resample="1" name="C:\Users\Ashu\OneDrive\Desktop\Test cases.pdf"/>
     </ext>
   </extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="323">
   <si>
     <t xml:space="preserve">Test Case </t>
   </si>
@@ -960,6 +961,149 @@
   <si>
     <t>1) Enter first character space
 2) Press Tab</t>
+  </si>
+  <si>
+    <t>MS01</t>
+  </si>
+  <si>
+    <t>MS_01_01</t>
+  </si>
+  <si>
+    <t>Account number 
+cannot be empty</t>
+  </si>
+  <si>
+    <t>User (Customer/Manager) 
+is on Mini Statement page</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>1. Do not enter a value in Account Number field.
+2. Press TAB and move to next Field</t>
+  </si>
+  <si>
+    <t>An error message "Account Number 
+must not be blank" must be shown</t>
+  </si>
+  <si>
+    <t>An error message "Account Number 
+must not be blank" is displayed</t>
+  </si>
+  <si>
+    <t>MS_01_02</t>
+  </si>
+  <si>
+    <t>Account number 
+must be numeric</t>
+  </si>
+  <si>
+    <t>1. Enter character value in Account number Field.</t>
+  </si>
+  <si>
+    <t>"An error message ""Characters are not allowed
+"" must be shown"</t>
+  </si>
+  <si>
+    <t>An error message "Characters are not allowed" is displayed</t>
+  </si>
+  <si>
+    <t>MS_01_03</t>
+  </si>
+  <si>
+    <t>Account number cannot 
+have special character</t>
+  </si>
+  <si>
+    <t>1. Enter Special Character in Account number field.</t>
+  </si>
+  <si>
+    <t>An error message "Special characters 
+are not allowed" must be shown</t>
+  </si>
+  <si>
+    <t>An error message " Special Characters are not allowed" is displayed</t>
+  </si>
+  <si>
+    <t>MS_01_04</t>
+  </si>
+  <si>
+    <t>Account number cannot 
+have blank space</t>
+  </si>
+  <si>
+    <t>1. Account number cannot have blank space
+2. Press TAB</t>
+  </si>
+  <si>
+    <t>An error message "Characters are not allowed
+" must be shown</t>
+  </si>
+  <si>
+    <t>MS_01_05</t>
+  </si>
+  <si>
+    <t>First Character 
+cannot be space</t>
+  </si>
+  <si>
+    <t>1. Enter first character space
+2. Press TAB</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>MS02</t>
+  </si>
+  <si>
+    <t>Display last 5 transactions with
+account ownership validation</t>
+  </si>
+  <si>
+    <t>MS_02_01</t>
+  </si>
+  <si>
+    <t>View last 5 
+transactions</t>
+  </si>
+  <si>
+    <t>User (Customer/Manager) 
+is logged in</t>
+  </si>
+  <si>
+    <t>Valid account 
+number</t>
+  </si>
+  <si>
+    <t>1. Navigate to the Mini Statement page.
+2. Enter a valid account number.
+3. Click on 'View Mini Statement'.</t>
+  </si>
+  <si>
+    <t>Last 5 transactions for the entered account 
+should be displayed.</t>
+  </si>
+  <si>
+    <t>MS_02_02</t>
+  </si>
+  <si>
+    <t>View Mini Statement 
+for invalid account</t>
+  </si>
+  <si>
+    <t>Invalid account 
+number</t>
+  </si>
+  <si>
+    <t>1. Navigate to the Mini Statement page.
+2. Enter an invalid account number.
+3. Click on 'View Mini Statement'.</t>
+  </si>
+  <si>
+    <t>Error message should be displayed 
+indicating invalid account number.</t>
   </si>
 </sst>
 </file>
@@ -985,7 +1129,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1720591151" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1721290363" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1000,7 +1144,7 @@
       <sz val="14"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1720591151" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1721290363" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="Lato" sz="280" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="280" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="280" lang="default" weight="bold"/>
@@ -1015,7 +1159,7 @@
       <sz val="14"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1720591151" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1721290363" ulstyle="none" kern="1">
             <pm:latin face="Lato" sz="280" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="280" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="280" lang="default" weight="bold"/>
@@ -1029,7 +1173,7 @@
       <sz val="14"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1720591151" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1721290363" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="Lato" sz="280" lang="default"/>
             <pm:cs face="Times New Roman" sz="280" lang="default"/>
             <pm:ea face="SimSun" sz="280" lang="default"/>
@@ -1044,7 +1188,7 @@
       <sz val="14"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1720591151" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1721290363" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="280" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1059,7 +1203,7 @@
       <sz val="14"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1720591151" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1721290363" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="280" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1068,7 +1212,7 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1081,7 +1225,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1720591151" type="1" fgLvl="100" fgClr="00FF6D01" bgLvl="0" bgClr="00FF6D01"/>
+            <pm:shade xmlns:pm="smNativeData" id="1721290363" type="1" fgLvl="100" fgClr="00FF6D01" bgLvl="0" bgClr="00FF6D01"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1092,7 +1236,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1720591151" type="1" fgLvl="100" fgClr="00FF6D01" bgLvl="0" bgClr="00FF6D01"/>
+            <pm:shade xmlns:pm="smNativeData" id="1721290363" type="1" fgLvl="100" fgClr="00FF6D01" bgLvl="0" bgClr="00FF6D01"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1109,7 +1253,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1720591151" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1721290363" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1120,7 +1264,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1720591151" type="1" fgLvl="100" fgClr="00FEF8E3" bgLvl="0" bgClr="00FEF8E3"/>
+            <pm:shade xmlns:pm="smNativeData" id="1721290363" type="1" fgLvl="100" fgClr="00FEF8E3" bgLvl="0" bgClr="00FEF8E3"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1131,7 +1275,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1720591151" type="1" fgLvl="100" fgClr="00F3F3F3" bgLvl="0" bgClr="00F3F3F3"/>
+            <pm:shade xmlns:pm="smNativeData" id="1721290363" type="1" fgLvl="100" fgClr="00F3F3F3" bgLvl="0" bgClr="00F3F3F3"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1142,7 +1286,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1720591151" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1721290363" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1153,7 +1297,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1720591151" type="1" fgLvl="64" fgClr="0000FF00" bgLvl="36" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1721290363" type="1" fgLvl="64" fgClr="0000FF00" bgLvl="36" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1164,18 +1308,18 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1720591151" type="1" fgLvl="100" fgClr="00FF0000" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1721290363" type="1" fgLvl="100" fgClr="00FF0000" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00D100"/>
+        <fgColor rgb="FFFF6D01"/>
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1720591151" type="1" fgLvl="82" fgClr="0000FF00" bgLvl="18" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1721290363" type="1" fgLvl="100" fgClr="00FF6D01" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1186,29 +1330,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1720591151" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF6D01"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1720591151" type="1" fgLvl="100" fgClr="00FF6D01" bgLvl="0" bgClr="00FFFFFF"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF7F1F"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1720591151" type="1" fgLvl="88" fgClr="00FF6D01" bgLvl="12" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1721290363" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1219,7 +1341,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1720591151" type="1" fgLvl="100" fgClr="0000FF00" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1721290363" type="1" fgLvl="100" fgClr="0000FF00" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1230,24 +1352,24 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1720591151" type="1" fgLvl="76" fgClr="00FF0000" bgLvl="24" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1721290363" type="1" fgLvl="76" fgClr="00FF0000" bgLvl="24" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFEF8E3"/>
+        <fgColor rgb="FF3DFF3D"/>
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1720591151" type="1" fgLvl="100" fgClr="00FEF8E3" bgLvl="0" bgClr="00FEF8E3"/>
+            <pm:shade xmlns:pm="smNativeData" id="1721290363" type="1" fgLvl="76" fgClr="0000FF00" bgLvl="24" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="16">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -1263,7 +1385,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1720591151"/>
+          <pm:border xmlns:pm="smNativeData" id="1721290363"/>
         </ext>
       </extLst>
     </border>
@@ -1282,7 +1404,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1720591151">
+          <pm:border xmlns:pm="smNativeData" id="1721290363">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1303,7 +1425,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1720591151"/>
+          <pm:border xmlns:pm="smNativeData" id="1721290363"/>
         </ext>
       </extLst>
     </border>
@@ -1322,7 +1444,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1720591151">
+          <pm:border xmlns:pm="smNativeData" id="1721290363">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1343,7 +1465,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1720591151">
+          <pm:border xmlns:pm="smNativeData" id="1721290363">
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1364,7 +1486,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1720591151">
+          <pm:border xmlns:pm="smNativeData" id="1721290363">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1386,7 +1508,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1720591151">
+          <pm:border xmlns:pm="smNativeData" id="1721290363">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1408,7 +1530,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1720591151"/>
+          <pm:border xmlns:pm="smNativeData" id="1721290363"/>
         </ext>
       </extLst>
     </border>
@@ -1427,7 +1549,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1720591151"/>
+          <pm:border xmlns:pm="smNativeData" id="1721290363"/>
         </ext>
       </extLst>
     </border>
@@ -1446,7 +1568,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1720591151"/>
+          <pm:border xmlns:pm="smNativeData" id="1721290363"/>
         </ext>
       </extLst>
     </border>
@@ -1465,7 +1587,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1720591151"/>
+          <pm:border xmlns:pm="smNativeData" id="1721290363"/>
         </ext>
       </extLst>
     </border>
@@ -1484,7 +1606,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1720591151"/>
+          <pm:border xmlns:pm="smNativeData" id="1721290363"/>
         </ext>
       </extLst>
     </border>
@@ -1503,7 +1625,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1720591151"/>
+          <pm:border xmlns:pm="smNativeData" id="1721290363"/>
         </ext>
       </extLst>
     </border>
@@ -1522,7 +1644,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1720591151"/>
+          <pm:border xmlns:pm="smNativeData" id="1721290363"/>
         </ext>
       </extLst>
     </border>
@@ -1541,7 +1663,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1720591151"/>
+          <pm:border xmlns:pm="smNativeData" id="1721290363"/>
         </ext>
       </extLst>
     </border>
@@ -1560,45 +1682,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1720591151"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1720591151"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1720591151"/>
+          <pm:border xmlns:pm="smNativeData" id="1721290363"/>
         </ext>
       </extLst>
     </border>
@@ -1701,10 +1785,7 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyAlignment="1">
@@ -1713,15 +1794,42 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1729,33 +1837,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1767,15 +1853,17 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1720591151" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1721290363" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1720591151" count="5">
+      <pm:colors xmlns:pm="smNativeData" id="1721290363" count="7">
         <pm:color name="Color 24" rgb="FF6D01"/>
         <pm:color name="Color 25" rgb="FEF8E3"/>
         <pm:color name="Color 26" rgb="F3F3F3"/>
         <pm:color name="Color 27" rgb="00A300"/>
         <pm:color name="Color 28" rgb="00D100"/>
+        <pm:color name="Color 29" rgb="FF7F1F"/>
+        <pm:color name="Color 30" rgb="FF3D3D"/>
       </pm:colors>
     </ext>
   </extLst>
@@ -6601,7 +6689,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1720591151" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1721290363" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -6610,16 +6698,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1720591151" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1720591151" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1720591151" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1720591151" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1721290363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1721290363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1721290363" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1721290363" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1720591151" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0" noPrint="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1721290363" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0" noPrint="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -6630,7 +6718,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <dimension ref="A2:AA45"/>
+  <dimension ref="A2:M45"/>
   <sheetViews>
     <sheetView view="normal" topLeftCell="A10" zoomScale="70" workbookViewId="0">
       <selection activeCell="A11" sqref="A11:XFD11"/>
@@ -6703,34 +6791,19 @@
       </c>
       <c r="C8" s="23"/>
     </row>
-    <row r="10" spans="1:27" s="34" customFormat="1" ht="42.50" customHeight="1">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
-      <c r="S10" s="36"/>
-      <c r="T10" s="36"/>
-      <c r="U10" s="36"/>
-      <c r="V10" s="36"/>
-      <c r="W10" s="36"/>
-      <c r="X10" s="36"/>
-      <c r="Y10" s="36"/>
-      <c r="Z10" s="36"/>
-      <c r="AA10" s="36"/>
+    <row r="10" spans="1:12" s="33" customFormat="1" ht="42.50" customHeight="1">
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
     </row>
     <row r="11" spans="1:13" ht="48.20" customHeight="1">
       <c r="A11" s="32" t="s">
@@ -6745,19 +6818,19 @@
       <c r="D11" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="37" t="s">
+      <c r="F11" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="37" t="s">
+      <c r="G11" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="37" t="s">
+      <c r="H11" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="33" t="s">
+      <c r="I11" s="32" t="s">
         <v>17</v>
       </c>
       <c r="J11" s="32" t="s">
@@ -6796,10 +6869,10 @@
       <c r="H12" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="I12" s="43" t="s">
+      <c r="I12" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="J12" s="44" t="s">
+      <c r="J12" s="40" t="s">
         <v>75</v>
       </c>
     </row>
@@ -6819,10 +6892,10 @@
       <c r="H13" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="I13" s="43" t="s">
+      <c r="I13" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="J13" s="44" t="s">
+      <c r="J13" s="40" t="s">
         <v>75</v>
       </c>
     </row>
@@ -6842,10 +6915,10 @@
       <c r="H14" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="I14" s="43" t="s">
+      <c r="I14" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="J14" s="44" t="s">
+      <c r="J14" s="40" t="s">
         <v>75</v>
       </c>
     </row>
@@ -6865,7 +6938,7 @@
       <c r="I15" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="J15" s="45" t="s">
+      <c r="J15" s="41" t="s">
         <v>92</v>
       </c>
     </row>
@@ -6891,7 +6964,7 @@
       <c r="I16" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="J16" s="45" t="s">
+      <c r="J16" s="41" t="s">
         <v>92</v>
       </c>
     </row>
@@ -6911,7 +6984,7 @@
       <c r="I17" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="J17" s="45" t="s">
+      <c r="J17" s="41" t="s">
         <v>92</v>
       </c>
     </row>
@@ -6937,7 +7010,7 @@
       <c r="I18" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="J18" s="44" t="s">
+      <c r="J18" s="40" t="s">
         <v>75</v>
       </c>
     </row>
@@ -6948,7 +7021,7 @@
       <c r="D19" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="F19" s="41" t="s">
+      <c r="F19" s="27" t="s">
         <v>111</v>
       </c>
       <c r="G19" s="26" t="s">
@@ -6960,7 +7033,7 @@
       <c r="I19" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="J19" s="44" t="s">
+      <c r="J19" s="40" t="s">
         <v>75</v>
       </c>
     </row>
@@ -6971,7 +7044,7 @@
       <c r="D20" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="F20" s="41" t="s">
+      <c r="F20" s="27" t="s">
         <v>115</v>
       </c>
       <c r="G20" s="26" t="s">
@@ -6983,7 +7056,7 @@
       <c r="I20" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="J20" s="44" t="s">
+      <c r="J20" s="40" t="s">
         <v>75</v>
       </c>
     </row>
@@ -7003,7 +7076,7 @@
       <c r="I21" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="J21" s="45" t="s">
+      <c r="J21" s="41" t="s">
         <v>92</v>
       </c>
     </row>
@@ -7029,7 +7102,7 @@
       <c r="I22" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="J22" s="44" t="s">
+      <c r="J22" s="40" t="s">
         <v>75</v>
       </c>
     </row>
@@ -7040,7 +7113,7 @@
       <c r="D23" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="F23" s="41" t="s">
+      <c r="F23" s="27" t="s">
         <v>128</v>
       </c>
       <c r="G23" s="26" t="s">
@@ -7052,7 +7125,7 @@
       <c r="I23" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="J23" s="44" t="s">
+      <c r="J23" s="40" t="s">
         <v>75</v>
       </c>
     </row>
@@ -7072,7 +7145,7 @@
       <c r="I24" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="J24" s="44" t="s">
+      <c r="J24" s="40" t="s">
         <v>75</v>
       </c>
     </row>
@@ -7092,7 +7165,7 @@
       <c r="I25" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="J25" s="45" t="s">
+      <c r="J25" s="41" t="s">
         <v>92</v>
       </c>
     </row>
@@ -7121,7 +7194,7 @@
       <c r="I26" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="J26" s="44" t="s">
+      <c r="J26" s="40" t="s">
         <v>75</v>
       </c>
     </row>
@@ -7141,7 +7214,7 @@
       <c r="I27" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="J27" s="44" t="s">
+      <c r="J27" s="40" t="s">
         <v>75</v>
       </c>
     </row>
@@ -7152,7 +7225,7 @@
       <c r="D28" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="F28" s="41" t="s">
+      <c r="F28" s="27" t="s">
         <v>150</v>
       </c>
       <c r="G28" s="28" t="s">
@@ -7164,7 +7237,7 @@
       <c r="I28" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="J28" s="44" t="s">
+      <c r="J28" s="40" t="s">
         <v>75</v>
       </c>
     </row>
@@ -7175,7 +7248,7 @@
       <c r="D29" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="F29" s="41" t="s">
+      <c r="F29" s="27" t="s">
         <v>156</v>
       </c>
       <c r="G29" s="26" t="s">
@@ -7187,7 +7260,7 @@
       <c r="I29" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="J29" s="44" t="s">
+      <c r="J29" s="40" t="s">
         <v>75</v>
       </c>
     </row>
@@ -7207,7 +7280,7 @@
       <c r="I30" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="J30" s="45" t="s">
+      <c r="J30" s="41" t="s">
         <v>92</v>
       </c>
     </row>
@@ -7218,7 +7291,7 @@
       <c r="D31" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="G31" s="39" t="s">
+      <c r="G31" s="37" t="s">
         <v>162</v>
       </c>
       <c r="H31" s="26" t="s">
@@ -7227,7 +7300,7 @@
       <c r="I31" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="J31" s="45" t="s">
+      <c r="J31" s="41" t="s">
         <v>92</v>
       </c>
     </row>
@@ -7244,7 +7317,7 @@
       <c r="D32" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="G32" s="40" t="s">
+      <c r="G32" s="28" t="s">
         <v>168</v>
       </c>
       <c r="H32" s="26" t="s">
@@ -7253,7 +7326,7 @@
       <c r="I32" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="J32" s="44" t="s">
+      <c r="J32" s="40" t="s">
         <v>75</v>
       </c>
     </row>
@@ -7273,7 +7346,7 @@
       <c r="I33" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="J33" s="45" t="s">
+      <c r="J33" s="41" t="s">
         <v>92</v>
       </c>
     </row>
@@ -7296,7 +7369,7 @@
       <c r="I34" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="J34" s="45" t="s">
+      <c r="J34" s="41" t="s">
         <v>92</v>
       </c>
     </row>
@@ -7307,7 +7380,7 @@
       <c r="D35" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="F35" s="41" t="s">
+      <c r="F35" s="27" t="s">
         <v>180</v>
       </c>
       <c r="G35" s="26" t="s">
@@ -7319,7 +7392,7 @@
       <c r="I35" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="J35" s="44" t="s">
+      <c r="J35" s="40" t="s">
         <v>75</v>
       </c>
     </row>
@@ -7336,7 +7409,7 @@
       <c r="D36" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="G36" s="40" t="s">
+      <c r="G36" s="28" t="s">
         <v>186</v>
       </c>
       <c r="H36" s="26" t="s">
@@ -7345,7 +7418,7 @@
       <c r="I36" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="J36" s="44" t="s">
+      <c r="J36" s="40" t="s">
         <v>75</v>
       </c>
     </row>
@@ -7356,7 +7429,7 @@
       <c r="D37" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="F37" s="41" t="s">
+      <c r="F37" s="27" t="s">
         <v>191</v>
       </c>
       <c r="G37" s="26" t="s">
@@ -7368,7 +7441,7 @@
       <c r="I37" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="J37" s="44" t="s">
+      <c r="J37" s="40" t="s">
         <v>75</v>
       </c>
     </row>
@@ -7388,7 +7461,7 @@
       <c r="I38" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="J38" s="45" t="s">
+      <c r="J38" s="41" t="s">
         <v>92</v>
       </c>
     </row>
@@ -7422,7 +7495,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1720591151" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1721290363" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -7431,16 +7504,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1720591151" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1720591151" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1720591151" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1720591151" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1721290363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1721290363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1721290363" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1721290363" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1720591151" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0" noPrint="1">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1721290363" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0" noPrint="1">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -7599,10 +7672,10 @@
       <c r="G12" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="H12" s="41" t="s">
+      <c r="H12" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="I12" s="45" t="s">
+      <c r="I12" s="41" t="s">
         <v>61</v>
       </c>
       <c r="L12" s="25" t="s">
@@ -7631,10 +7704,10 @@
       <c r="G13" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="H13" s="41" t="s">
+      <c r="H13" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="I13" s="45" t="s">
+      <c r="I13" s="41" t="s">
         <v>61</v>
       </c>
       <c r="L13" s="25" t="s">
@@ -7663,10 +7736,10 @@
       <c r="G14" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="H14" s="41" t="s">
+      <c r="H14" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="I14" s="45" t="s">
+      <c r="I14" s="41" t="s">
         <v>61</v>
       </c>
       <c r="L14" s="25" t="s">
@@ -7682,7 +7755,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1720591151" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1721290363" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -7691,16 +7764,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1720591151" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1720591151" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1720591151" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1720591151" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1721290363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1721290363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1721290363" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1721290363" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1720591151" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0" noPrint="1">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1721290363" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0" noPrint="1">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -7942,7 +8015,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1720591151" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1721290363" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -7951,16 +8024,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1720591151" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1720591151" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1720591151" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1720591151" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1721290363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1721290363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1721290363" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1721290363" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1720591151" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0" noPrint="1">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1721290363" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0" noPrint="1">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -8184,7 +8257,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1720591151" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1721290363" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -8193,16 +8266,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1720591151" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1720591151" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1720591151" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1720591151" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1721290363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1721290363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1721290363" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1721290363" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1720591151" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0" noPrint="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1721290363" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0" noPrint="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -8215,31 +8288,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A4" zoomScale="70" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView view="normal" zoomScale="70" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="25.50" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.540541" customWidth="1" style="46"/>
-    <col min="2" max="2" width="25.936937" customWidth="1" style="49"/>
-    <col min="3" max="3" width="24.810811" customWidth="1" style="46"/>
-    <col min="4" max="4" width="53.450450" customWidth="1" style="49"/>
-    <col min="5" max="5" width="20.513514" customWidth="1" style="49"/>
-    <col min="6" max="6" width="21.360360" customWidth="1" style="50"/>
-    <col min="7" max="7" width="58.630631" customWidth="1" style="46"/>
-    <col min="8" max="9" width="80.486486" customWidth="1" style="46"/>
-    <col min="10" max="16384" width="17.873874" customWidth="1" style="46"/>
+    <col min="1" max="1" width="15.540541" customWidth="1" style="36"/>
+    <col min="2" max="2" width="25.936937" customWidth="1" style="37"/>
+    <col min="3" max="3" width="24.810811" customWidth="1" style="36"/>
+    <col min="4" max="4" width="53.450450" customWidth="1" style="37"/>
+    <col min="5" max="5" width="20.513514" customWidth="1" style="37"/>
+    <col min="6" max="6" width="21.360360" customWidth="1" style="25"/>
+    <col min="7" max="7" width="58.630631" customWidth="1" style="36"/>
+    <col min="8" max="9" width="80.486486" customWidth="1" style="36"/>
+    <col min="10" max="16384" width="17.873874" customWidth="1" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" s="46" customFormat="1" ht="25.50" customHeight="1">
-      <c r="B1" s="49"/>
+    <row r="1" spans="2:6" s="36" customFormat="1" ht="25.50" customHeight="1">
+      <c r="B1" s="37"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="21"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="3:4" ht="25.50" customHeight="1">
       <c r="C2" s="6" t="s">
@@ -8298,19 +8371,19 @@
       <c r="D10" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="37" t="s">
+      <c r="F10" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="37" t="s">
+      <c r="G10" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="37" t="s">
+      <c r="H10" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="33" t="s">
+      <c r="I10" s="32" t="s">
         <v>17</v>
       </c>
       <c r="J10" s="32" t="s">
@@ -8327,133 +8400,133 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="59.55" customHeight="1">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="D11" s="37" t="s">
         <v>264</v>
       </c>
-      <c r="E11" s="49" t="s">
+      <c r="E11" s="37" t="s">
         <v>265</v>
       </c>
-      <c r="G11" s="48" t="s">
+      <c r="G11" s="42" t="s">
         <v>266</v>
       </c>
-      <c r="H11" s="38" t="s">
+      <c r="H11" s="36" t="s">
         <v>267</v>
       </c>
-      <c r="I11" s="38" t="s">
+      <c r="I11" s="36" t="s">
         <v>267</v>
       </c>
-      <c r="J11" s="52" t="s">
+      <c r="J11" s="40" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="12" spans="3:10" ht="59.55" customHeight="1">
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="25" t="s">
         <v>269</v>
       </c>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="37" t="s">
         <v>270</v>
       </c>
-      <c r="E12" s="49" t="s">
+      <c r="E12" s="37" t="s">
         <v>265</v>
       </c>
-      <c r="F12" s="51" t="s">
+      <c r="F12" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="G12" s="49" t="s">
+      <c r="G12" s="37" t="s">
         <v>272</v>
       </c>
-      <c r="H12" s="38" t="s">
+      <c r="H12" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="I12" s="38" t="s">
+      <c r="I12" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="J12" s="52" t="s">
+      <c r="J12" s="40" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="13" spans="3:10" ht="59.55" customHeight="1">
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="25" t="s">
         <v>273</v>
       </c>
-      <c r="D13" s="49" t="s">
+      <c r="D13" s="37" t="s">
         <v>274</v>
       </c>
-      <c r="E13" s="49" t="s">
+      <c r="E13" s="37" t="s">
         <v>265</v>
       </c>
-      <c r="F13" s="51" t="s">
+      <c r="F13" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="G13" s="49" t="s">
+      <c r="G13" s="37" t="s">
         <v>276</v>
       </c>
-      <c r="H13" s="38" t="s">
+      <c r="H13" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="I13" s="38" t="s">
+      <c r="I13" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="J13" s="52" t="s">
+      <c r="J13" s="40" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="14" spans="3:10" ht="59.55" customHeight="1">
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="25" t="s">
         <v>277</v>
       </c>
-      <c r="D14" s="49" t="s">
+      <c r="D14" s="37" t="s">
         <v>278</v>
       </c>
-      <c r="E14" s="49" t="s">
+      <c r="E14" s="37" t="s">
         <v>265</v>
       </c>
-      <c r="F14" s="47" t="s">
+      <c r="F14" s="25" t="s">
         <v>279</v>
       </c>
-      <c r="G14" s="48" t="s">
+      <c r="G14" s="42" t="s">
         <v>280</v>
       </c>
-      <c r="H14" s="38" t="s">
+      <c r="H14" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="I14" s="38" t="s">
+      <c r="I14" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="J14" s="52" t="s">
+      <c r="J14" s="40" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="15" spans="3:10" ht="59.55" customHeight="1">
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="D15" s="49" t="s">
+      <c r="D15" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="E15" s="49" t="s">
+      <c r="E15" s="37" t="s">
         <v>265</v>
       </c>
       <c r="F15"/>
-      <c r="G15" s="48" t="s">
+      <c r="G15" s="42" t="s">
         <v>283</v>
       </c>
-      <c r="H15" s="38" t="s">
+      <c r="H15" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="I15" s="38" t="s">
+      <c r="I15" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="J15" s="52" t="s">
+      <c r="J15" s="40" t="s">
         <v>268</v>
       </c>
     </row>
@@ -8474,7 +8547,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1720591151" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1721290363" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -8483,16 +8556,322 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1720591151" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1720591151" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1720591151" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1720591151" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1721290363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1721290363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1721290363" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1721290363" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1720591151" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0" noPrint="1">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1721290363" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0" noPrint="1">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <dimension ref="A5:M17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="normal" zoomScale="70" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="15.540541" customWidth="1" style="46"/>
+    <col min="2" max="2" width="40.675676" customWidth="1" style="46"/>
+    <col min="3" max="3" width="15.261261" customWidth="1" style="46"/>
+    <col min="4" max="4" width="53.450450" customWidth="1" style="46"/>
+    <col min="5" max="5" width="30.117117" customWidth="1" style="46"/>
+    <col min="6" max="6" width="25.540541" customWidth="1" style="46"/>
+    <col min="7" max="7" width="61.522523" customWidth="1" style="46"/>
+    <col min="8" max="8" width="54.423423" customWidth="1" style="46"/>
+    <col min="9" max="9" width="48.423423" customWidth="1" style="46"/>
+    <col min="10" max="10" width="8.675676" customWidth="1" style="46"/>
+    <col min="11" max="11" width="23.828829" customWidth="1" style="46"/>
+    <col min="12" max="12" width="20.567568" customWidth="1" style="46"/>
+    <col min="13" max="13" width="9.783784" customWidth="1" style="46"/>
+    <col min="14" max="16384" width="25.540541" customWidth="1" style="46"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:13" s="25" customFormat="1" ht="39.70" customHeight="1">
+      <c r="A5" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="82.20" customHeight="1">
+      <c r="A6" s="43" t="s">
+        <v>284</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>262</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>285</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>286</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>287</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>288</v>
+      </c>
+      <c r="G6" s="51" t="s">
+        <v>289</v>
+      </c>
+      <c r="H6" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="I6" s="50" t="s">
+        <v>291</v>
+      </c>
+      <c r="J6" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" ht="82.20" customHeight="1">
+      <c r="C7" s="46" t="s">
+        <v>292</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>293</v>
+      </c>
+      <c r="E7" s="44" t="s">
+        <v>287</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>288</v>
+      </c>
+      <c r="G7" s="45" t="s">
+        <v>294</v>
+      </c>
+      <c r="H7" s="50" t="s">
+        <v>295</v>
+      </c>
+      <c r="I7" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="J7" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" ht="82.20" customHeight="1">
+      <c r="C8" s="46" t="s">
+        <v>297</v>
+      </c>
+      <c r="D8" s="49" t="s">
+        <v>298</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>287</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>288</v>
+      </c>
+      <c r="G8" s="45" t="s">
+        <v>299</v>
+      </c>
+      <c r="H8" s="50" t="s">
+        <v>300</v>
+      </c>
+      <c r="I8" s="50" t="s">
+        <v>301</v>
+      </c>
+      <c r="J8" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" ht="82.20" customHeight="1">
+      <c r="C9" s="46" t="s">
+        <v>302</v>
+      </c>
+      <c r="D9" s="49" t="s">
+        <v>303</v>
+      </c>
+      <c r="E9" s="44" t="s">
+        <v>287</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>288</v>
+      </c>
+      <c r="G9" s="51" t="s">
+        <v>304</v>
+      </c>
+      <c r="H9" s="50" t="s">
+        <v>305</v>
+      </c>
+      <c r="I9" s="44" t="s">
+        <v>296</v>
+      </c>
+      <c r="J9" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" ht="82.20" customHeight="1">
+      <c r="C10" s="46" t="s">
+        <v>306</v>
+      </c>
+      <c r="D10" s="49" t="s">
+        <v>307</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>287</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>288</v>
+      </c>
+      <c r="G10" s="51" t="s">
+        <v>308</v>
+      </c>
+      <c r="H10" s="50" t="s">
+        <v>305</v>
+      </c>
+      <c r="I10" s="44" t="s">
+        <v>296</v>
+      </c>
+      <c r="J10" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="43" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="82.20" customHeight="1">
+      <c r="A11" s="46" t="s">
+        <v>310</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>311</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>312</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>313</v>
+      </c>
+      <c r="E11" s="47" t="s">
+        <v>314</v>
+      </c>
+      <c r="F11" s="47" t="s">
+        <v>315</v>
+      </c>
+      <c r="G11" s="48" t="s">
+        <v>316</v>
+      </c>
+      <c r="H11" s="47" t="s">
+        <v>317</v>
+      </c>
+      <c r="M11" s="46" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13" ht="82.20" customHeight="1">
+      <c r="C12" s="46" t="s">
+        <v>318</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>319</v>
+      </c>
+      <c r="E12" s="47" t="s">
+        <v>314</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="G12" s="48" t="s">
+        <v>321</v>
+      </c>
+      <c r="H12" s="47" t="s">
+        <v>322</v>
+      </c>
+      <c r="M12" s="46" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="82.20" customHeight="1"/>
+    <row r="14" spans="1:1" ht="82.20" customHeight="1"/>
+    <row r="15" spans="1:1" ht="82.20" customHeight="1"/>
+    <row r="16" spans="1:1" ht="82.20" customHeight="1"/>
+    <row r="17" spans="1:1" ht="82.20" customHeight="1"/>
+  </sheetData>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1721290363" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="0.787500" right="0.787500" top="0.787500" bottom="0.787500" header="0.393750" footer="0.393750"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
+  <headerFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1721290363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1721290363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1721290363" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1721290363" Id="1" type="0" value="0"/>
+      </ext>
+    </extLst>
+  </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1721290363" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0" noPrint="1">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
